--- a/Code/Results/Cases/Case_1_121/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_121/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.249439433611264</v>
+        <v>7.817481054725187</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.219757861717885</v>
+        <v>8.956687002177262</v>
       </c>
       <c r="E2">
-        <v>8.852320893622412</v>
+        <v>13.59163149916536</v>
       </c>
       <c r="F2">
-        <v>23.62644577175045</v>
+        <v>33.84103078573688</v>
       </c>
       <c r="G2">
-        <v>2.092943089742942</v>
+        <v>3.660266244116293</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.900402371872077</v>
+        <v>10.12650920219991</v>
       </c>
       <c r="K2">
-        <v>14.57612306788451</v>
+        <v>11.17907715981412</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.61339025748789</v>
+        <v>15.71016208632966</v>
       </c>
       <c r="N2">
-        <v>12.96576841722683</v>
+        <v>19.66633514129256</v>
       </c>
       <c r="O2">
-        <v>16.87600030636513</v>
+        <v>25.57303292257555</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.893129703101571</v>
+        <v>7.74649179613065</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.021012621707424</v>
+        <v>8.939537045287773</v>
       </c>
       <c r="E3">
-        <v>8.699038007903846</v>
+        <v>13.59980362885076</v>
       </c>
       <c r="F3">
-        <v>23.21424024114406</v>
+        <v>33.87928389297875</v>
       </c>
       <c r="G3">
-        <v>2.098063645264799</v>
+        <v>3.662244156708274</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.919255597247825</v>
+        <v>10.14894479144957</v>
       </c>
       <c r="K3">
-        <v>13.68311912424498</v>
+        <v>10.90073912465009</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.0019547597465</v>
+        <v>15.61018128412094</v>
       </c>
       <c r="N3">
-        <v>13.16333646027821</v>
+        <v>19.72757654451025</v>
       </c>
       <c r="O3">
-        <v>16.738915109339</v>
+        <v>25.63100130601634</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.667899777596586</v>
+        <v>7.704416437718603</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.898163136870969</v>
+        <v>8.930330081366453</v>
       </c>
       <c r="E4">
-        <v>8.608394193575631</v>
+        <v>13.60704204713831</v>
       </c>
       <c r="F4">
-        <v>22.97715399889729</v>
+        <v>33.91050717482582</v>
       </c>
       <c r="G4">
-        <v>2.101308669651142</v>
+        <v>3.663523847494791</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.933297205059338</v>
+        <v>10.16385254972159</v>
       </c>
       <c r="K4">
-        <v>13.10455553870299</v>
+        <v>10.72773085843693</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.61470433902958</v>
+        <v>15.55091928326991</v>
       </c>
       <c r="N4">
-        <v>13.28768128787515</v>
+        <v>19.76701246850477</v>
       </c>
       <c r="O4">
-        <v>16.6682031802284</v>
+        <v>25.67194038360059</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.574625156036777</v>
+        <v>7.687669738781905</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.847968263043118</v>
+        <v>8.926913706672766</v>
       </c>
       <c r="E5">
-        <v>8.572356496776534</v>
+        <v>13.61055079596423</v>
       </c>
       <c r="F5">
-        <v>22.88457842237801</v>
+        <v>33.92517398455471</v>
       </c>
       <c r="G5">
-        <v>2.102656992792275</v>
+        <v>3.664061789603944</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.939625033591543</v>
+        <v>10.17021259721546</v>
       </c>
       <c r="K5">
-        <v>12.86120170806214</v>
+        <v>10.65680099538089</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.45412084758965</v>
+        <v>15.52732386085421</v>
       </c>
       <c r="N5">
-        <v>13.33913404124262</v>
+        <v>19.78354527948037</v>
       </c>
       <c r="O5">
-        <v>16.64268740476944</v>
+        <v>25.68996536261425</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.559051128622377</v>
+        <v>7.684913624505908</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.839627663002324</v>
+        <v>8.926366763637622</v>
       </c>
       <c r="E6">
-        <v>8.566427599981315</v>
+        <v>13.61116720033214</v>
       </c>
       <c r="F6">
-        <v>22.86945038945227</v>
+        <v>33.92772667680002</v>
       </c>
       <c r="G6">
-        <v>2.10288246394137</v>
+        <v>3.664152110002129</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.940711942059064</v>
+        <v>10.17128590154308</v>
       </c>
       <c r="K6">
-        <v>12.82033590487033</v>
+        <v>10.64500040711654</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.42729485559533</v>
+        <v>15.5234398943495</v>
       </c>
       <c r="N6">
-        <v>13.34772541628298</v>
+        <v>19.78631850379194</v>
       </c>
       <c r="O6">
-        <v>16.63864723180393</v>
+        <v>25.69303937419146</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.666647694243418</v>
+        <v>7.704188944280024</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.897486628185001</v>
+        <v>8.930282644808818</v>
       </c>
       <c r="E7">
-        <v>8.607904496498195</v>
+        <v>13.60708710313583</v>
       </c>
       <c r="F7">
-        <v>22.97588913074838</v>
+        <v>33.91069711253405</v>
       </c>
       <c r="G7">
-        <v>2.101326747820541</v>
+        <v>3.663531035665135</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.933380110195819</v>
+        <v>10.16393716912049</v>
       </c>
       <c r="K7">
-        <v>13.10130425071665</v>
+        <v>10.72677586595305</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.61254960749984</v>
+        <v>15.55059879748341</v>
       </c>
       <c r="N7">
-        <v>13.28837201181149</v>
+        <v>19.7672335619871</v>
       </c>
       <c r="O7">
-        <v>16.66784582100588</v>
+        <v>25.67217804452192</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.127996074085566</v>
+        <v>7.792701729515643</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.151442884699931</v>
+        <v>8.950500825297345</v>
       </c>
       <c r="E8">
-        <v>8.798765124746808</v>
+        <v>13.59398876235212</v>
       </c>
       <c r="F8">
-        <v>23.4810062661697</v>
+        <v>33.85261383253562</v>
       </c>
       <c r="G8">
-        <v>2.094688041142685</v>
+        <v>3.660934717919423</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.906382520242652</v>
+        <v>10.13401018914231</v>
       </c>
       <c r="K8">
-        <v>14.27450424528454</v>
+        <v>11.08360350953656</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.40513091421175</v>
+        <v>15.67525930920266</v>
       </c>
       <c r="N8">
-        <v>13.03327023258504</v>
+        <v>19.68707143736001</v>
       </c>
       <c r="O8">
-        <v>16.82589129181258</v>
+        <v>25.59190943682517</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.9767011872627</v>
+        <v>7.977404214470302</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.640007074801241</v>
+        <v>9.000514882165806</v>
       </c>
       <c r="E9">
-        <v>9.199329395096875</v>
+        <v>13.58589057553301</v>
       </c>
       <c r="F9">
-        <v>24.59744567559783</v>
+        <v>33.80015958769565</v>
       </c>
       <c r="G9">
-        <v>2.082444298672251</v>
+        <v>3.656358685032093</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.873664593663947</v>
+        <v>10.08429330820655</v>
       </c>
       <c r="K9">
-        <v>16.3347994971435</v>
+        <v>11.76238454201373</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.94608709090687</v>
+        <v>15.93569688156404</v>
       </c>
       <c r="N9">
-        <v>12.55628705643666</v>
+        <v>19.54436070598671</v>
       </c>
       <c r="O9">
-        <v>17.24602658873965</v>
+        <v>25.47702172187866</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.597814410312761</v>
+        <v>8.118686304804127</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.989678360281683</v>
+        <v>9.043389254896939</v>
       </c>
       <c r="E10">
-        <v>9.507917405446532</v>
+        <v>13.59061100581231</v>
       </c>
       <c r="F10">
-        <v>25.49240945013164</v>
+        <v>33.79913124120358</v>
       </c>
       <c r="G10">
-        <v>2.073882085883505</v>
+        <v>3.653307554511063</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.862897792835963</v>
+        <v>10.05321577621639</v>
       </c>
       <c r="K10">
-        <v>17.7024822242566</v>
+        <v>12.2430422203188</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.16239501750318</v>
+        <v>16.1355376315477</v>
       </c>
       <c r="N10">
-        <v>12.21882403298783</v>
+        <v>19.44825681824219</v>
       </c>
       <c r="O10">
-        <v>17.62606652050033</v>
+        <v>25.41865690651467</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.905606972862657</v>
+        <v>8.183908010001156</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.146118833893761</v>
+        <v>9.064179670881634</v>
       </c>
       <c r="E11">
-        <v>9.65104192983134</v>
+        <v>13.59506083133879</v>
       </c>
       <c r="F11">
-        <v>25.91523954904687</v>
+        <v>33.80680253308995</v>
       </c>
       <c r="G11">
-        <v>2.070071822384879</v>
+        <v>3.65198632310555</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.861094938534374</v>
+        <v>10.04025710354272</v>
       </c>
       <c r="K11">
-        <v>18.29327539696425</v>
+        <v>12.45679566626435</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.68764392126207</v>
+        <v>16.22801925060591</v>
       </c>
       <c r="N11">
-        <v>12.06784261412855</v>
+        <v>19.40641744548477</v>
       </c>
       <c r="O11">
-        <v>17.81521010384179</v>
+        <v>25.39778121913746</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.019709428581638</v>
+        <v>8.208720387687421</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.204937712472974</v>
+        <v>9.072233299686012</v>
       </c>
       <c r="E12">
-        <v>9.705605161185922</v>
+        <v>13.59707538594883</v>
       </c>
       <c r="F12">
-        <v>26.07756495746636</v>
+        <v>33.81087581822662</v>
       </c>
       <c r="G12">
-        <v>2.06864035606556</v>
+        <v>3.651495551837446</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.860875682668611</v>
+        <v>10.03551916864199</v>
       </c>
       <c r="K12">
-        <v>18.51251565912595</v>
+        <v>12.53695966163967</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.88255290049497</v>
+        <v>16.26324195332819</v>
       </c>
       <c r="N12">
-        <v>12.01101031580224</v>
+        <v>19.39084278071894</v>
       </c>
       <c r="O12">
-        <v>17.88922538762914</v>
+        <v>25.39069337206876</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.995244066763783</v>
+        <v>8.203371871338332</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.192289406422264</v>
+        <v>9.070490837874221</v>
       </c>
       <c r="E13">
-        <v>9.693838209869165</v>
+        <v>13.5966268882107</v>
       </c>
       <c r="F13">
-        <v>26.04250780027281</v>
+        <v>33.80994664356728</v>
       </c>
       <c r="G13">
-        <v>2.068948154100883</v>
+        <v>3.65160082420228</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.860901991505211</v>
+        <v>10.0365320450949</v>
       </c>
       <c r="K13">
-        <v>18.46549704349855</v>
+        <v>12.5197307227288</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.84075255670026</v>
+        <v>16.25564752293812</v>
       </c>
       <c r="N13">
-        <v>12.02323537673587</v>
+        <v>19.39418511813229</v>
       </c>
       <c r="O13">
-        <v>17.87317775967056</v>
+        <v>25.39218349870253</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.915043244686762</v>
+        <v>8.185947176701468</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.150966580744243</v>
+        <v>9.064838650454893</v>
       </c>
       <c r="E14">
-        <v>9.655523726856297</v>
+        <v>13.59521997602649</v>
       </c>
       <c r="F14">
-        <v>25.92855016524009</v>
+        <v>33.80711424448003</v>
       </c>
       <c r="G14">
-        <v>2.06995383104733</v>
+        <v>3.651945755923343</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.861067504365304</v>
+        <v>10.03986392057242</v>
       </c>
       <c r="K14">
-        <v>18.31140201565718</v>
+        <v>12.46340684292418</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.70375893362078</v>
+        <v>16.23091313676675</v>
       </c>
       <c r="N14">
-        <v>12.06316028669818</v>
+        <v>19.40513072396195</v>
       </c>
       <c r="O14">
-        <v>17.821251188978</v>
+        <v>25.39718171098522</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.865599369222448</v>
+        <v>8.175288269814573</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.125599033951591</v>
+        <v>9.061399931206401</v>
       </c>
       <c r="E15">
-        <v>9.632101691589348</v>
+        <v>13.5944010621709</v>
       </c>
       <c r="F15">
-        <v>25.85903404537016</v>
+        <v>33.80553139367826</v>
       </c>
       <c r="G15">
-        <v>2.07057129733571</v>
+        <v>3.652158278910065</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.861229797261945</v>
+        <v>10.04192682204809</v>
       </c>
       <c r="K15">
-        <v>18.21643193014624</v>
+        <v>12.42880316414212</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.61932792964625</v>
+        <v>16.21578818194049</v>
       </c>
       <c r="N15">
-        <v>12.08765916421833</v>
+        <v>19.41187022062138</v>
       </c>
       <c r="O15">
-        <v>17.78975748013994</v>
+        <v>25.40034973316503</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.577354953128062</v>
+        <v>8.114441138489809</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.979397847012311</v>
+        <v>9.042056082731206</v>
       </c>
       <c r="E16">
-        <v>9.498616551023497</v>
+        <v>13.59036639926829</v>
       </c>
       <c r="F16">
-        <v>25.46508826144487</v>
+        <v>33.79879352767227</v>
       </c>
       <c r="G16">
-        <v>2.07413273448061</v>
+        <v>3.653395239089846</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.86307944980879</v>
+        <v>10.05408635164828</v>
       </c>
       <c r="K16">
-        <v>17.66324370553141</v>
+        <v>12.22896775814149</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.12750780131227</v>
+        <v>16.12952332471789</v>
       </c>
       <c r="N16">
-        <v>12.22874003342338</v>
+        <v>19.45102882519765</v>
       </c>
       <c r="O16">
-        <v>17.61403734869623</v>
+        <v>25.42013549051248</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.396132126873354</v>
+        <v>8.077341131700091</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.889002098386785</v>
+        <v>9.030515827885104</v>
       </c>
       <c r="E17">
-        <v>9.417409339978002</v>
+        <v>13.58847991170551</v>
       </c>
       <c r="F17">
-        <v>25.2274021212887</v>
+        <v>33.79674349569981</v>
       </c>
       <c r="G17">
-        <v>2.076338718460836</v>
+        <v>3.654171134918582</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.865019733007073</v>
+        <v>10.06184752913107</v>
       </c>
       <c r="K17">
-        <v>17.31586532050472</v>
+        <v>12.10506469084483</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.81863571103417</v>
+        <v>16.07698834124104</v>
       </c>
       <c r="N17">
-        <v>12.31592108227934</v>
+        <v>19.4755317236391</v>
       </c>
       <c r="O17">
-        <v>17.51044250099379</v>
+        <v>25.4337278753295</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.307441522644897</v>
+        <v>8.056093125291955</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.836763846987536</v>
+        <v>9.023999552784895</v>
       </c>
       <c r="E18">
-        <v>9.370961285364004</v>
+        <v>13.58761168124578</v>
       </c>
       <c r="F18">
-        <v>25.092172673312</v>
+        <v>33.79633063987345</v>
       </c>
       <c r="G18">
-        <v>2.077615567258585</v>
+        <v>3.654623694657443</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.866425910862089</v>
+        <v>10.06642250889115</v>
       </c>
       <c r="K18">
-        <v>17.11310721914683</v>
+        <v>12.03334179069622</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.6383370996861</v>
+        <v>16.04692114613004</v>
       </c>
       <c r="N18">
-        <v>12.36630510133276</v>
+        <v>19.48980205011995</v>
       </c>
       <c r="O18">
-        <v>17.45238531411964</v>
+        <v>25.44207993222697</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.277861092630646</v>
+        <v>8.048915220626141</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.819036234875433</v>
+        <v>9.021814226849461</v>
       </c>
       <c r="E19">
-        <v>9.355280397961971</v>
+        <v>13.5873549990255</v>
       </c>
       <c r="F19">
-        <v>25.04664227535783</v>
+        <v>33.79632250969325</v>
       </c>
       <c r="G19">
-        <v>2.078049287794749</v>
+        <v>3.654778004504514</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.866951307497642</v>
+        <v>10.06799058294425</v>
       </c>
       <c r="K19">
-        <v>17.04394840870807</v>
+        <v>12.00898152922669</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.57683580827702</v>
+        <v>16.03676732905009</v>
       </c>
       <c r="N19">
-        <v>12.38340613226133</v>
+        <v>19.49466415727205</v>
       </c>
       <c r="O19">
-        <v>17.43298887983623</v>
+        <v>25.44499947879679</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.415591390968002</v>
+        <v>8.081281242514073</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.898650575966012</v>
+        <v>9.031731776214432</v>
       </c>
       <c r="E20">
-        <v>9.426027280126831</v>
+        <v>13.58865830165046</v>
       </c>
       <c r="F20">
-        <v>25.25255127222336</v>
+        <v>33.7968824313067</v>
       </c>
       <c r="G20">
-        <v>2.076103062662121</v>
+        <v>3.654087889353843</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.864783023137662</v>
+        <v>10.06100985688039</v>
       </c>
       <c r="K20">
-        <v>17.35314999515622</v>
+        <v>12.11830225977383</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.85178897090248</v>
+        <v>16.08256547833913</v>
       </c>
       <c r="N20">
-        <v>12.30661585734757</v>
+        <v>19.47290504750936</v>
       </c>
       <c r="O20">
-        <v>17.52131183063623</v>
+        <v>25.43222565742691</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.938666511463593</v>
+        <v>8.19106230821993</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.163115862187182</v>
+        <v>9.066493964450279</v>
       </c>
       <c r="E21">
-        <v>9.66676793911658</v>
+        <v>13.59562429125836</v>
       </c>
       <c r="F21">
-        <v>25.96196272115827</v>
+        <v>33.80791450127462</v>
       </c>
       <c r="G21">
-        <v>2.069658136538583</v>
+        <v>3.651844182295073</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.861006161568513</v>
+        <v>10.03888067708515</v>
       </c>
       <c r="K21">
-        <v>18.35678477422927</v>
+        <v>12.47997226310109</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.74410524475158</v>
+        <v>16.23817294027889</v>
       </c>
       <c r="N21">
-        <v>12.05142430487548</v>
+        <v>19.40190844291573</v>
       </c>
       <c r="O21">
-        <v>17.83643800406391</v>
+        <v>25.39569142415172</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.266246765878817</v>
+        <v>8.26346661549228</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.333484943746338</v>
+        <v>9.090264489092249</v>
       </c>
       <c r="E22">
-        <v>9.826221524583641</v>
+        <v>13.60209668836443</v>
       </c>
       <c r="F22">
-        <v>26.43845833241946</v>
+        <v>33.82193296161682</v>
       </c>
       <c r="G22">
-        <v>2.065512037175871</v>
+        <v>3.650433435381719</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.861248100871718</v>
+        <v>10.02540427943225</v>
       </c>
       <c r="K22">
-        <v>18.98662252425802</v>
+        <v>12.71176879791262</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.3040433353999</v>
+        <v>16.34103693802032</v>
       </c>
       <c r="N22">
-        <v>11.88661850875347</v>
+        <v>19.35707545021506</v>
       </c>
       <c r="O22">
-        <v>18.05634736388103</v>
+        <v>25.37657855594094</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.092709164448792</v>
+        <v>8.224770470895308</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.242795105002793</v>
+        <v>9.077482969495344</v>
       </c>
       <c r="E23">
-        <v>9.740933882103674</v>
+        <v>13.59846716804242</v>
       </c>
       <c r="F23">
-        <v>26.18298308787956</v>
+        <v>33.81382898690679</v>
       </c>
       <c r="G23">
-        <v>2.067719119840338</v>
+        <v>3.651181301499526</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.860864725759862</v>
+        <v>10.03250672487554</v>
       </c>
       <c r="K23">
-        <v>18.65284206878963</v>
+        <v>12.58849652263102</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.0073053047923</v>
+        <v>16.28603792429823</v>
       </c>
       <c r="N23">
-        <v>11.97440550240876</v>
+        <v>19.38086062761206</v>
       </c>
       <c r="O23">
-        <v>17.93768445299205</v>
+        <v>25.38634316460219</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.406799061484502</v>
+        <v>8.079499663524036</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.89428933225828</v>
+        <v>9.031181676951554</v>
       </c>
       <c r="E24">
-        <v>9.42213036249874</v>
+        <v>13.58857697758125</v>
       </c>
       <c r="F24">
-        <v>25.2411769158884</v>
+        <v>33.79681723314228</v>
       </c>
       <c r="G24">
-        <v>2.076209575805051</v>
+        <v>3.654125504464011</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.864889135640042</v>
+        <v>10.06138821657666</v>
       </c>
       <c r="K24">
-        <v>17.3363030825113</v>
+        <v>12.11231907336534</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.83680886976602</v>
+        <v>16.08004362959164</v>
       </c>
       <c r="N24">
-        <v>12.31082193026543</v>
+        <v>19.47409199677067</v>
       </c>
       <c r="O24">
-        <v>17.51639313583538</v>
+        <v>25.43290313558618</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.753694928304443</v>
+        <v>7.926368505068569</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.50923533215587</v>
+        <v>8.985893741604112</v>
       </c>
       <c r="E25">
-        <v>9.088329666548329</v>
+        <v>13.58620310285966</v>
       </c>
       <c r="F25">
-        <v>24.28212373227935</v>
+        <v>33.80776314270908</v>
       </c>
       <c r="G25">
-        <v>2.085677515132529</v>
+        <v>3.657541793479905</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.880255255795523</v>
+        <v>10.09678469706365</v>
       </c>
       <c r="K25">
-        <v>15.80315214855978</v>
+        <v>11.58156708600009</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.47695061805751</v>
+        <v>15.86365699829211</v>
       </c>
       <c r="N25">
-        <v>12.68295422749111</v>
+        <v>19.58142574758202</v>
       </c>
       <c r="O25">
-        <v>17.12011161649102</v>
+        <v>25.50353624725232</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_121/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_121/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.817481054725187</v>
+        <v>7.249439433611264</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.956687002177262</v>
+        <v>6.219757861718015</v>
       </c>
       <c r="E2">
-        <v>13.59163149916536</v>
+        <v>8.852320893622505</v>
       </c>
       <c r="F2">
-        <v>33.84103078573688</v>
+        <v>23.62644577175049</v>
       </c>
       <c r="G2">
-        <v>3.660266244116293</v>
+        <v>2.092943089742942</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.12650920219991</v>
+        <v>5.900402371872077</v>
       </c>
       <c r="K2">
-        <v>11.17907715981412</v>
+        <v>14.57612306788454</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.71016208632966</v>
+        <v>12.6133902574879</v>
       </c>
       <c r="N2">
-        <v>19.66633514129256</v>
+        <v>12.96576841722683</v>
       </c>
       <c r="O2">
-        <v>25.57303292257555</v>
+        <v>16.87600030636507</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.74649179613065</v>
+        <v>6.893129703101613</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.939537045287773</v>
+        <v>6.021012621707446</v>
       </c>
       <c r="E3">
-        <v>13.59980362885076</v>
+        <v>8.699038007903894</v>
       </c>
       <c r="F3">
-        <v>33.87928389297875</v>
+        <v>23.21424024114401</v>
       </c>
       <c r="G3">
-        <v>3.662244156708274</v>
+        <v>2.098063645264931</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.14894479144957</v>
+        <v>5.919255597247827</v>
       </c>
       <c r="K3">
-        <v>10.90073912465009</v>
+        <v>13.68311912424508</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.61018128412094</v>
+        <v>12.00195475974646</v>
       </c>
       <c r="N3">
-        <v>19.72757654451025</v>
+        <v>13.16333646027825</v>
       </c>
       <c r="O3">
-        <v>25.63100130601634</v>
+        <v>16.73891510933888</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.704416437718603</v>
+        <v>6.667899777596564</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.930330081366453</v>
+        <v>5.898163136870932</v>
       </c>
       <c r="E4">
-        <v>13.60704204713831</v>
+        <v>8.608394193575549</v>
       </c>
       <c r="F4">
-        <v>33.91050717482582</v>
+        <v>22.97715399889702</v>
       </c>
       <c r="G4">
-        <v>3.663523847494791</v>
+        <v>2.101308669650875</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.16385254972159</v>
+        <v>5.933297205059315</v>
       </c>
       <c r="K4">
-        <v>10.72773085843693</v>
+        <v>13.10455553870307</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.55091928326991</v>
+        <v>11.61470433902953</v>
       </c>
       <c r="N4">
-        <v>19.76701246850477</v>
+        <v>13.28768128787508</v>
       </c>
       <c r="O4">
-        <v>25.67194038360059</v>
+        <v>16.6682031802282</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.687669738781905</v>
+        <v>6.574625156036755</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.926913706672766</v>
+        <v>5.847968263043263</v>
       </c>
       <c r="E5">
-        <v>13.61055079596423</v>
+        <v>8.572356496776591</v>
       </c>
       <c r="F5">
-        <v>33.92517398455471</v>
+        <v>22.88457842237796</v>
       </c>
       <c r="G5">
-        <v>3.664061789603944</v>
+        <v>2.102656992792407</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.17021259721546</v>
+        <v>5.939625033591543</v>
       </c>
       <c r="K5">
-        <v>10.65680099538089</v>
+        <v>12.8612017080622</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.52732386085421</v>
+        <v>11.45412084758964</v>
       </c>
       <c r="N5">
-        <v>19.78354527948037</v>
+        <v>13.33913404124262</v>
       </c>
       <c r="O5">
-        <v>25.68996536261425</v>
+        <v>16.64268740476937</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.684913624505908</v>
+        <v>6.559051128622377</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.926366763637622</v>
+        <v>5.839627663002437</v>
       </c>
       <c r="E6">
-        <v>13.61116720033214</v>
+        <v>8.566427599981353</v>
       </c>
       <c r="F6">
-        <v>33.92772667680002</v>
+        <v>22.86945038945237</v>
       </c>
       <c r="G6">
-        <v>3.664152110002129</v>
+        <v>2.102882463941503</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.17128590154308</v>
+        <v>5.940711942059005</v>
       </c>
       <c r="K6">
-        <v>10.64500040711654</v>
+        <v>12.82033590487028</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.5234398943495</v>
+        <v>11.42729485559535</v>
       </c>
       <c r="N6">
-        <v>19.78631850379194</v>
+        <v>13.34772541628298</v>
       </c>
       <c r="O6">
-        <v>25.69303937419146</v>
+        <v>16.63864723180394</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.704188944280024</v>
+        <v>6.666647694243409</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.930282644808818</v>
+        <v>5.897486628185051</v>
       </c>
       <c r="E7">
-        <v>13.60708710313583</v>
+        <v>8.607904496498247</v>
       </c>
       <c r="F7">
-        <v>33.91069711253405</v>
+        <v>22.97588913074843</v>
       </c>
       <c r="G7">
-        <v>3.663531035665135</v>
+        <v>2.101326747820409</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.16393716912049</v>
+        <v>5.933380110195849</v>
       </c>
       <c r="K7">
-        <v>10.72677586595305</v>
+        <v>13.10130425071661</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.55059879748341</v>
+        <v>11.61254960749986</v>
       </c>
       <c r="N7">
-        <v>19.7672335619871</v>
+        <v>13.28837201181149</v>
       </c>
       <c r="O7">
-        <v>25.67217804452192</v>
+        <v>16.66784582100593</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.792701729515643</v>
+        <v>7.127996074085526</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.950500825297345</v>
+        <v>6.151442884699972</v>
       </c>
       <c r="E8">
-        <v>13.59398876235212</v>
+        <v>8.798765124746909</v>
       </c>
       <c r="F8">
-        <v>33.85261383253562</v>
+        <v>23.48100626616953</v>
       </c>
       <c r="G8">
-        <v>3.660934717919423</v>
+        <v>2.09468804114255</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.13401018914231</v>
+        <v>5.906382520242745</v>
       </c>
       <c r="K8">
-        <v>11.08360350953656</v>
+        <v>14.2745042452846</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.67525930920266</v>
+        <v>12.40513091421174</v>
       </c>
       <c r="N8">
-        <v>19.68707143736001</v>
+        <v>13.03327023258501</v>
       </c>
       <c r="O8">
-        <v>25.59190943682517</v>
+        <v>16.82589129181244</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.977404214470302</v>
+        <v>7.97670118726271</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.000514882165806</v>
+        <v>6.640007074801174</v>
       </c>
       <c r="E9">
-        <v>13.58589057553301</v>
+        <v>9.199329395096937</v>
       </c>
       <c r="F9">
-        <v>33.80015958769565</v>
+        <v>24.59744567559757</v>
       </c>
       <c r="G9">
-        <v>3.656358685032093</v>
+        <v>2.082444298672116</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.08429330820655</v>
+        <v>5.873664593664029</v>
       </c>
       <c r="K9">
-        <v>11.76238454201373</v>
+        <v>16.33479949714356</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.93569688156404</v>
+        <v>13.94608709090689</v>
       </c>
       <c r="N9">
-        <v>19.54436070598671</v>
+        <v>12.55628705643653</v>
       </c>
       <c r="O9">
-        <v>25.47702172187866</v>
+        <v>17.24602658873943</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.118686304804127</v>
+        <v>8.597814410312807</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.043389254896939</v>
+        <v>6.989678360281758</v>
       </c>
       <c r="E10">
-        <v>13.59061100581231</v>
+        <v>9.507917405446573</v>
       </c>
       <c r="F10">
-        <v>33.79913124120358</v>
+        <v>25.49240945013154</v>
       </c>
       <c r="G10">
-        <v>3.653307554511063</v>
+        <v>2.073882085883505</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.05321577621639</v>
+        <v>5.86289779283596</v>
       </c>
       <c r="K10">
-        <v>12.2430422203188</v>
+        <v>17.70248222425668</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.1355376315477</v>
+        <v>15.16239501750322</v>
       </c>
       <c r="N10">
-        <v>19.44825681824219</v>
+        <v>12.21882403298777</v>
       </c>
       <c r="O10">
-        <v>25.41865690651467</v>
+        <v>17.62606652050021</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.183908010001156</v>
+        <v>8.905606972862627</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.064179670881634</v>
+        <v>7.146118833893819</v>
       </c>
       <c r="E11">
-        <v>13.59506083133879</v>
+        <v>9.651041929831308</v>
       </c>
       <c r="F11">
-        <v>33.80680253308995</v>
+        <v>25.91523954904688</v>
       </c>
       <c r="G11">
-        <v>3.65198632310555</v>
+        <v>2.070071822384612</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.04025710354272</v>
+        <v>5.861094938534348</v>
       </c>
       <c r="K11">
-        <v>12.45679566626435</v>
+        <v>18.29327539696418</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.22801925060591</v>
+        <v>15.68764392126204</v>
       </c>
       <c r="N11">
-        <v>19.40641744548477</v>
+        <v>12.06784261412845</v>
       </c>
       <c r="O11">
-        <v>25.39778121913746</v>
+        <v>17.8152101038418</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.208720387687421</v>
+        <v>9.01970942858161</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.072233299686012</v>
+        <v>7.20493771247294</v>
       </c>
       <c r="E12">
-        <v>13.59707538594883</v>
+        <v>9.70560516118594</v>
       </c>
       <c r="F12">
-        <v>33.81087581822662</v>
+        <v>26.07756495746628</v>
       </c>
       <c r="G12">
-        <v>3.651495551837446</v>
+        <v>2.06864035606556</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.03551916864199</v>
+        <v>5.860875682668667</v>
       </c>
       <c r="K12">
-        <v>12.53695966163967</v>
+        <v>18.51251565912597</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.26324195332819</v>
+        <v>15.88255290049498</v>
       </c>
       <c r="N12">
-        <v>19.39084278071894</v>
+        <v>12.01101031580224</v>
       </c>
       <c r="O12">
-        <v>25.39069337206876</v>
+        <v>17.88922538762911</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.203371871338332</v>
+        <v>8.995244066763803</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.070490837874221</v>
+        <v>7.192289406422343</v>
       </c>
       <c r="E13">
-        <v>13.5966268882107</v>
+        <v>9.69383820986921</v>
       </c>
       <c r="F13">
-        <v>33.80994664356728</v>
+        <v>26.04250780027276</v>
       </c>
       <c r="G13">
-        <v>3.65160082420228</v>
+        <v>2.068948154100749</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.0365320450949</v>
+        <v>5.860901991505205</v>
       </c>
       <c r="K13">
-        <v>12.5197307227288</v>
+        <v>18.46549704349853</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.25564752293812</v>
+        <v>15.84075255670024</v>
       </c>
       <c r="N13">
-        <v>19.39418511813229</v>
+        <v>12.02323537673577</v>
       </c>
       <c r="O13">
-        <v>25.39218349870253</v>
+        <v>17.87317775967047</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.185947176701468</v>
+        <v>8.915043244686734</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.064838650454893</v>
+        <v>7.150966580744246</v>
       </c>
       <c r="E14">
-        <v>13.59521997602649</v>
+        <v>9.655523726856238</v>
       </c>
       <c r="F14">
-        <v>33.80711424448003</v>
+        <v>25.92855016523995</v>
       </c>
       <c r="G14">
-        <v>3.651945755923343</v>
+        <v>2.069953831046928</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.03986392057242</v>
+        <v>5.861067504365261</v>
       </c>
       <c r="K14">
-        <v>12.46340684292418</v>
+        <v>18.31140201565723</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.23091313676675</v>
+        <v>15.70375893362085</v>
       </c>
       <c r="N14">
-        <v>19.40513072396195</v>
+        <v>12.06316028669809</v>
       </c>
       <c r="O14">
-        <v>25.39718171098522</v>
+        <v>17.8212511889779</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.175288269814573</v>
+        <v>8.865599369222515</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.061399931206401</v>
+        <v>7.125599033951585</v>
       </c>
       <c r="E15">
-        <v>13.5944010621709</v>
+        <v>9.632101691589391</v>
       </c>
       <c r="F15">
-        <v>33.80553139367826</v>
+        <v>25.85903404537002</v>
       </c>
       <c r="G15">
-        <v>3.652158278910065</v>
+        <v>2.070571297336109</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.04192682204809</v>
+        <v>5.861229797261998</v>
       </c>
       <c r="K15">
-        <v>12.42880316414212</v>
+        <v>18.21643193014632</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.21578818194049</v>
+        <v>15.61932792964627</v>
       </c>
       <c r="N15">
-        <v>19.41187022062138</v>
+        <v>12.08765916421827</v>
       </c>
       <c r="O15">
-        <v>25.40034973316503</v>
+        <v>17.78975748013981</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.114441138489809</v>
+        <v>8.577354953128069</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.042056082731206</v>
+        <v>6.979397847012274</v>
       </c>
       <c r="E16">
-        <v>13.59036639926829</v>
+        <v>9.498616551023471</v>
       </c>
       <c r="F16">
-        <v>33.79879352767227</v>
+        <v>25.46508826144474</v>
       </c>
       <c r="G16">
-        <v>3.653395239089846</v>
+        <v>2.074132734480344</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.05408635164828</v>
+        <v>5.86307944980879</v>
       </c>
       <c r="K16">
-        <v>12.22896775814149</v>
+        <v>17.66324370553145</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.12952332471789</v>
+        <v>15.12750780131231</v>
       </c>
       <c r="N16">
-        <v>19.45102882519765</v>
+        <v>12.22874003342332</v>
       </c>
       <c r="O16">
-        <v>25.42013549051248</v>
+        <v>17.61403734869611</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.077341131700091</v>
+        <v>8.396132126873358</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.030515827885104</v>
+        <v>6.8890020983868</v>
       </c>
       <c r="E17">
-        <v>13.58847991170551</v>
+        <v>9.417409339978066</v>
       </c>
       <c r="F17">
-        <v>33.79674349569981</v>
+        <v>25.22740212128866</v>
       </c>
       <c r="G17">
-        <v>3.654171134918582</v>
+        <v>2.076338718460435</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.06184752913107</v>
+        <v>5.865019733007096</v>
       </c>
       <c r="K17">
-        <v>12.10506469084483</v>
+        <v>17.31586532050476</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.07698834124104</v>
+        <v>14.81863571103417</v>
       </c>
       <c r="N17">
-        <v>19.4755317236391</v>
+        <v>12.31592108227938</v>
       </c>
       <c r="O17">
-        <v>25.4337278753295</v>
+        <v>17.51044250099376</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.056093125291955</v>
+        <v>8.307441522644917</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.023999552784895</v>
+        <v>6.836763846987632</v>
       </c>
       <c r="E18">
-        <v>13.58761168124578</v>
+        <v>9.370961285364086</v>
       </c>
       <c r="F18">
-        <v>33.79633063987345</v>
+        <v>25.092172673312</v>
       </c>
       <c r="G18">
-        <v>3.654623694657443</v>
+        <v>2.077615567258585</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.06642250889115</v>
+        <v>5.866425910862096</v>
       </c>
       <c r="K18">
-        <v>12.03334179069622</v>
+        <v>17.11310721914689</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.04692114613004</v>
+        <v>14.6383370996861</v>
       </c>
       <c r="N18">
-        <v>19.48980205011995</v>
+        <v>12.36630510133276</v>
       </c>
       <c r="O18">
-        <v>25.44207993222697</v>
+        <v>17.45238531411956</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.048915220626141</v>
+        <v>8.277861092630632</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.021814226849461</v>
+        <v>6.819036234875416</v>
       </c>
       <c r="E19">
-        <v>13.5873549990255</v>
+        <v>9.35528039796187</v>
       </c>
       <c r="F19">
-        <v>33.79632250969325</v>
+        <v>25.04664227535764</v>
       </c>
       <c r="G19">
-        <v>3.654778004504514</v>
+        <v>2.078049287794616</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.06799058294425</v>
+        <v>5.866951307497595</v>
       </c>
       <c r="K19">
-        <v>12.00898152922669</v>
+        <v>17.04394840870812</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.03676732905009</v>
+        <v>14.57683580827709</v>
       </c>
       <c r="N19">
-        <v>19.49466415727205</v>
+        <v>12.38340613226116</v>
       </c>
       <c r="O19">
-        <v>25.44499947879679</v>
+        <v>17.43298887983601</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.081281242514073</v>
+        <v>8.415591390968038</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.031731776214432</v>
+        <v>6.898650575965972</v>
       </c>
       <c r="E20">
-        <v>13.58865830165046</v>
+        <v>9.42602728012684</v>
       </c>
       <c r="F20">
-        <v>33.7968824313067</v>
+        <v>25.25255127222317</v>
       </c>
       <c r="G20">
-        <v>3.654087889353843</v>
+        <v>2.07610306266212</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.06100985688039</v>
+        <v>5.864783023137696</v>
       </c>
       <c r="K20">
-        <v>12.11830225977383</v>
+        <v>17.35314999515626</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.08256547833913</v>
+        <v>14.85178897090251</v>
       </c>
       <c r="N20">
-        <v>19.47290504750936</v>
+        <v>12.3066158573475</v>
       </c>
       <c r="O20">
-        <v>25.43222565742691</v>
+        <v>17.52131183063609</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.19106230821993</v>
+        <v>8.938666511463619</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.066493964450279</v>
+        <v>7.163115862187211</v>
       </c>
       <c r="E21">
-        <v>13.59562429125836</v>
+        <v>9.666767939116657</v>
       </c>
       <c r="F21">
-        <v>33.80791450127462</v>
+        <v>25.96196272115818</v>
       </c>
       <c r="G21">
-        <v>3.651844182295073</v>
+        <v>2.069658136538714</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.03888067708515</v>
+        <v>5.861006161568572</v>
       </c>
       <c r="K21">
-        <v>12.47997226310109</v>
+        <v>18.35678477422935</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.23817294027889</v>
+        <v>15.7441052447516</v>
       </c>
       <c r="N21">
-        <v>19.40190844291573</v>
+        <v>12.05142430487548</v>
       </c>
       <c r="O21">
-        <v>25.39569142415172</v>
+        <v>17.8364380040638</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.26346661549228</v>
+        <v>9.266246765878812</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.090264489092249</v>
+        <v>7.333484943746369</v>
       </c>
       <c r="E22">
-        <v>13.60209668836443</v>
+        <v>9.826221524583616</v>
       </c>
       <c r="F22">
-        <v>33.82193296161682</v>
+        <v>26.43845833241935</v>
       </c>
       <c r="G22">
-        <v>3.650433435381719</v>
+        <v>2.065512037175602</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.02540427943225</v>
+        <v>5.861248100871719</v>
       </c>
       <c r="K22">
-        <v>12.71176879791262</v>
+        <v>18.98662252425812</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.34103693802032</v>
+        <v>16.30404333539999</v>
       </c>
       <c r="N22">
-        <v>19.35707545021506</v>
+        <v>11.88661850875343</v>
       </c>
       <c r="O22">
-        <v>25.37657855594094</v>
+        <v>18.0563473638809</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.224770470895308</v>
+        <v>9.092709164448754</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.077482969495344</v>
+        <v>7.242795105002841</v>
       </c>
       <c r="E23">
-        <v>13.59846716804242</v>
+        <v>9.740933882103766</v>
       </c>
       <c r="F23">
-        <v>33.81382898690679</v>
+        <v>26.18298308787951</v>
       </c>
       <c r="G23">
-        <v>3.651181301499526</v>
+        <v>2.067719119840472</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.03250672487554</v>
+        <v>5.860864725759938</v>
       </c>
       <c r="K23">
-        <v>12.58849652263102</v>
+        <v>18.65284206878962</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.28603792429823</v>
+        <v>16.00730530479226</v>
       </c>
       <c r="N23">
-        <v>19.38086062761206</v>
+        <v>11.97440550240877</v>
       </c>
       <c r="O23">
-        <v>25.38634316460219</v>
+        <v>17.93768445299198</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.079499663524036</v>
+        <v>8.406799061484493</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.031181676951554</v>
+        <v>6.894289332258256</v>
       </c>
       <c r="E24">
-        <v>13.58857697758125</v>
+        <v>9.422130362498759</v>
       </c>
       <c r="F24">
-        <v>33.79681723314228</v>
+        <v>25.24117691588822</v>
       </c>
       <c r="G24">
-        <v>3.654125504464011</v>
+        <v>2.076209575805186</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.06138821657666</v>
+        <v>5.864889135639994</v>
       </c>
       <c r="K24">
-        <v>12.11231907336534</v>
+        <v>17.33630308251141</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.08004362959164</v>
+        <v>14.83680886976611</v>
       </c>
       <c r="N24">
-        <v>19.47409199677067</v>
+        <v>12.31082193026536</v>
       </c>
       <c r="O24">
-        <v>25.43290313558618</v>
+        <v>17.51639313583517</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.926368505068569</v>
+        <v>7.753694928304479</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.985893741604112</v>
+        <v>6.509235332155792</v>
       </c>
       <c r="E25">
-        <v>13.58620310285966</v>
+        <v>9.088329666548276</v>
       </c>
       <c r="F25">
-        <v>33.80776314270908</v>
+        <v>24.28212373227916</v>
       </c>
       <c r="G25">
-        <v>3.657541793479905</v>
+        <v>2.085677515132663</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.09678469706365</v>
+        <v>5.880255255795518</v>
       </c>
       <c r="K25">
-        <v>11.58156708600009</v>
+        <v>15.80315214855985</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.86365699829211</v>
+        <v>13.47695061805744</v>
       </c>
       <c r="N25">
-        <v>19.58142574758202</v>
+        <v>12.68295422749115</v>
       </c>
       <c r="O25">
-        <v>25.50353624725232</v>
+        <v>17.12011161649088</v>
       </c>
     </row>
   </sheetData>
